--- a/digital-objects/omap/2-intestine-codex/v1.5/draft/raw/omap-2-intestine-codex.xlsx
+++ b/digital-objects/omap/2-intestine-codex/v1.5/draft/raw/omap-2-intestine-codex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenmq/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenmq/Documents/GitHub/hra-kg/digital-objects/omap/2-intestine-codex/v1.5/draft/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF86987-6397-0C46-9579-7A1AF361C53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F22F7BC-DE08-164C-AC54-CC82C071AAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4240" windowWidth="34560" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1720" windowWidth="34560" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="omap-2-intestine-codex" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5503" uniqueCount="1514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5504" uniqueCount="1515">
   <si>
     <t>OMAP-2 Organ Mapping Antibody Panel (OMAP) for Multiplexed Antibody-Based Imaging of Human Intestine with CODEX</t>
   </si>
@@ -4566,13 +4566,16 @@
   </si>
   <si>
     <t>CD45RO is used to define a particular T cell activation state.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48539/HBM243.TNZD.275</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4665,35 +4668,30 @@
       <name val="Lato"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Lato Regular"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Lato Regular"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF674EA7"/>
       <name val="Lato Regular"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lato Regular"/>
-    </font>
-    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Lato Regular"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Lato Regular"/>
     </font>
@@ -4773,7 +4771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4864,20 +4862,17 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5227,7 +5222,7 @@
   <dimension ref="A1:AT999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B8" sqref="A3:Z63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5354,7 +5349,7 @@
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
     </row>
-    <row r="3" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
@@ -5406,7 +5401,7 @@
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
     </row>
-    <row r="4" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -5458,7 +5453,7 @@
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
     </row>
-    <row r="5" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
@@ -5510,7 +5505,7 @@
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
     </row>
-    <row r="6" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
@@ -5562,7 +5557,7 @@
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
     </row>
-    <row r="7" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>9</v>
       </c>
@@ -5616,7 +5611,9 @@
       <c r="A8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="42" t="s">
+        <v>1514</v>
+      </c>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -5662,7 +5659,7 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
     </row>
-    <row r="9" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>11</v>
       </c>
@@ -5714,7 +5711,7 @@
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
     </row>
-    <row r="10" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>12</v>
       </c>
@@ -5766,7 +5763,7 @@
       <c r="AS10" s="7"/>
       <c r="AT10" s="7"/>
     </row>
-    <row r="11" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
         <v>13</v>
       </c>
@@ -5874,13 +5871,13 @@
       <c r="C12" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="35" t="s">
@@ -5930,13 +5927,13 @@
       <c r="W12" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X12" s="49" t="s">
+      <c r="X12" s="48" t="s">
         <v>57</v>
       </c>
       <c r="Y12" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="50" t="s">
+      <c r="Z12" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA12" s="4"/>
@@ -5970,13 +5967,13 @@
       <c r="C13" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="35" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="47" t="s">
         <v>63</v>
       </c>
       <c r="G13" s="35" t="s">
@@ -6026,13 +6023,13 @@
       <c r="W13" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X13" s="49" t="s">
+      <c r="X13" s="48" t="s">
         <v>70</v>
       </c>
       <c r="Y13" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z13" s="50" t="s">
+      <c r="Z13" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA13" s="4"/>
@@ -6066,13 +6063,13 @@
       <c r="C14" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="35" t="s">
         <v>73</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="35" t="s">
@@ -6122,13 +6119,13 @@
       <c r="W14" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X14" s="49" t="s">
+      <c r="X14" s="48" t="s">
         <v>80</v>
       </c>
       <c r="Y14" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z14" s="50" t="s">
+      <c r="Z14" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA14" s="4"/>
@@ -6152,7 +6149,7 @@
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
     </row>
-    <row r="15" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>38</v>
       </c>
@@ -6168,7 +6165,7 @@
       <c r="E15" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="47" t="s">
         <v>84</v>
       </c>
       <c r="G15" s="35" t="s">
@@ -6218,13 +6215,13 @@
       <c r="W15" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="X15" s="49" t="s">
+      <c r="X15" s="48" t="s">
         <v>91</v>
       </c>
       <c r="Y15" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z15" s="50" t="s">
+      <c r="Z15" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA15" s="4"/>
@@ -6258,13 +6255,13 @@
       <c r="C16" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="35" t="s">
         <v>94</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="50" t="s">
         <v>95</v>
       </c>
       <c r="G16" s="35" t="s">
@@ -6314,13 +6311,13 @@
       <c r="W16" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X16" s="49" t="s">
+      <c r="X16" s="48" t="s">
         <v>99</v>
       </c>
       <c r="Y16" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z16" s="50" t="s">
+      <c r="Z16" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA16" s="4"/>
@@ -6354,13 +6351,13 @@
       <c r="C17" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="35" t="s">
@@ -6410,13 +6407,13 @@
       <c r="W17" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X17" s="49" t="s">
+      <c r="X17" s="48" t="s">
         <v>99</v>
       </c>
       <c r="Y17" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z17" s="50" t="s">
+      <c r="Z17" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA17" s="4"/>
@@ -6450,13 +6447,13 @@
       <c r="C18" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="35" t="s">
         <v>108</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="47" t="s">
         <v>109</v>
       </c>
       <c r="G18" s="35" t="s">
@@ -6506,13 +6503,13 @@
       <c r="W18" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X18" s="49" t="s">
+      <c r="X18" s="48" t="s">
         <v>114</v>
       </c>
       <c r="Y18" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z18" s="50" t="s">
+      <c r="Z18" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA18" s="4"/>
@@ -6546,13 +6543,13 @@
       <c r="C19" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="35" t="s">
         <v>117</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="47" t="s">
         <v>119</v>
       </c>
       <c r="G19" s="35" t="s">
@@ -6602,13 +6599,13 @@
       <c r="W19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X19" s="49" t="s">
+      <c r="X19" s="48" t="s">
         <v>123</v>
       </c>
       <c r="Y19" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z19" s="50" t="s">
+      <c r="Z19" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA19" s="4"/>
@@ -6642,13 +6639,13 @@
       <c r="C20" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="35" t="s">
         <v>126</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="35" t="s">
@@ -6698,13 +6695,13 @@
       <c r="W20" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="X20" s="52" t="s">
+      <c r="X20" s="51" t="s">
         <v>130</v>
       </c>
       <c r="Y20" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z20" s="50" t="s">
+      <c r="Z20" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA20" s="4"/>
@@ -6738,13 +6735,13 @@
       <c r="C21" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="35" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="47" t="s">
         <v>109</v>
       </c>
       <c r="G21" s="35" t="s">
@@ -6794,13 +6791,13 @@
       <c r="W21" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X21" s="49" t="s">
+      <c r="X21" s="48" t="s">
         <v>138</v>
       </c>
       <c r="Y21" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z21" s="50" t="s">
+      <c r="Z21" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA21" s="4"/>
@@ -6834,13 +6831,13 @@
       <c r="C22" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="35" t="s">
         <v>141</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G22" s="35" t="s">
@@ -6890,13 +6887,13 @@
       <c r="W22" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X22" s="49" t="s">
+      <c r="X22" s="48" t="s">
         <v>145</v>
       </c>
       <c r="Y22" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z22" s="50" t="s">
+      <c r="Z22" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA22" s="4"/>
@@ -6930,13 +6927,13 @@
       <c r="C23" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="35" t="s">
         <v>148</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G23" s="35" t="s">
@@ -6986,13 +6983,13 @@
       <c r="W23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X23" s="49" t="s">
+      <c r="X23" s="48" t="s">
         <v>1509</v>
       </c>
       <c r="Y23" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z23" s="50" t="s">
+      <c r="Z23" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA23" s="4"/>
@@ -7026,13 +7023,13 @@
       <c r="C24" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="35" t="s">
         <v>154</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="47" t="s">
         <v>84</v>
       </c>
       <c r="G24" s="35" t="s">
@@ -7082,13 +7079,13 @@
       <c r="W24" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X24" s="49" t="s">
+      <c r="X24" s="48" t="s">
         <v>160</v>
       </c>
       <c r="Y24" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z24" s="50" t="s">
+      <c r="Z24" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA24" s="4"/>
@@ -7122,13 +7119,13 @@
       <c r="C25" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="35" t="s">
         <v>163</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="47" t="s">
         <v>109</v>
       </c>
       <c r="G25" s="35" t="s">
@@ -7178,13 +7175,13 @@
       <c r="W25" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X25" s="49" t="s">
+      <c r="X25" s="48" t="s">
         <v>167</v>
       </c>
       <c r="Y25" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z25" s="50" t="s">
+      <c r="Z25" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA25" s="4"/>
@@ -7218,13 +7215,13 @@
       <c r="C26" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="35" t="s">
         <v>170</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G26" s="35" t="s">
@@ -7274,13 +7271,13 @@
       <c r="W26" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X26" s="49" t="s">
+      <c r="X26" s="48" t="s">
         <v>174</v>
       </c>
       <c r="Y26" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z26" s="50" t="s">
+      <c r="Z26" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA26" s="4"/>
@@ -7314,13 +7311,13 @@
       <c r="C27" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="35" t="s">
         <v>177</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="47" t="s">
         <v>178</v>
       </c>
       <c r="G27" s="35" t="s">
@@ -7370,13 +7367,13 @@
       <c r="W27" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X27" s="49" t="s">
+      <c r="X27" s="48" t="s">
         <v>183</v>
       </c>
       <c r="Y27" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z27" s="50" t="s">
+      <c r="Z27" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA27" s="4"/>
@@ -7410,13 +7407,13 @@
       <c r="C28" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="35" t="s">
         <v>186</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="47" t="s">
         <v>109</v>
       </c>
       <c r="G28" s="35" t="s">
@@ -7466,13 +7463,13 @@
       <c r="W28" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X28" s="49" t="s">
+      <c r="X28" s="48" t="s">
         <v>191</v>
       </c>
       <c r="Y28" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z28" s="50" t="s">
+      <c r="Z28" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA28" s="4"/>
@@ -7506,13 +7503,13 @@
       <c r="C29" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="35" t="s">
         <v>194</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="47" t="s">
         <v>109</v>
       </c>
       <c r="G29" s="35" t="s">
@@ -7562,13 +7559,13 @@
       <c r="W29" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X29" s="49" t="s">
+      <c r="X29" s="48" t="s">
         <v>198</v>
       </c>
       <c r="Y29" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z29" s="50" t="s">
+      <c r="Z29" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA29" s="4"/>
@@ -7602,13 +7599,13 @@
       <c r="C30" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="35" t="s">
         <v>201</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="47" t="s">
         <v>109</v>
       </c>
       <c r="G30" s="35" t="s">
@@ -7658,13 +7655,13 @@
       <c r="W30" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X30" s="49" t="s">
+      <c r="X30" s="48" t="s">
         <v>206</v>
       </c>
       <c r="Y30" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z30" s="50" t="s">
+      <c r="Z30" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA30" s="4"/>
@@ -7698,13 +7695,13 @@
       <c r="C31" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="35" t="s">
         <v>209</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G31" s="35" t="s">
@@ -7754,13 +7751,13 @@
       <c r="W31" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="X31" s="49" t="s">
+      <c r="X31" s="48" t="s">
         <v>213</v>
       </c>
       <c r="Y31" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z31" s="50" t="s">
+      <c r="Z31" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA31" s="4"/>
@@ -7794,13 +7791,13 @@
       <c r="C32" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="35" t="s">
         <v>216</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="47" t="s">
         <v>109</v>
       </c>
       <c r="G32" s="35" t="s">
@@ -7850,13 +7847,13 @@
       <c r="W32" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X32" s="49" t="s">
+      <c r="X32" s="48" t="s">
         <v>1513</v>
       </c>
       <c r="Y32" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z32" s="50" t="s">
+      <c r="Z32" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA32" s="4"/>
@@ -7890,13 +7887,13 @@
       <c r="C33" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="35" t="s">
         <v>223</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G33" s="35" t="s">
@@ -7946,13 +7943,13 @@
       <c r="W33" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X33" s="49" t="s">
+      <c r="X33" s="48" t="s">
         <v>229</v>
       </c>
       <c r="Y33" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z33" s="50" t="s">
+      <c r="Z33" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA33" s="4"/>
@@ -7986,13 +7983,13 @@
       <c r="C34" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="35" t="s">
         <v>232</v>
       </c>
       <c r="E34" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G34" s="35" t="s">
@@ -8042,13 +8039,13 @@
       <c r="W34" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X34" s="49" t="s">
+      <c r="X34" s="48" t="s">
         <v>236</v>
       </c>
       <c r="Y34" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z34" s="50" t="s">
+      <c r="Z34" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA34" s="4"/>
@@ -8082,13 +8079,13 @@
       <c r="C35" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="35" t="s">
         <v>239</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G35" s="35" t="s">
@@ -8138,13 +8135,13 @@
       <c r="W35" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X35" s="49" t="s">
+      <c r="X35" s="48" t="s">
         <v>220</v>
       </c>
       <c r="Y35" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z35" s="50" t="s">
+      <c r="Z35" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA35" s="4"/>
@@ -8178,13 +8175,13 @@
       <c r="C36" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="35" t="s">
         <v>245</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="47" t="s">
         <v>109</v>
       </c>
       <c r="G36" s="35" t="s">
@@ -8234,13 +8231,13 @@
       <c r="W36" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="X36" s="49" t="s">
+      <c r="X36" s="48" t="s">
         <v>250</v>
       </c>
       <c r="Y36" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z36" s="50" t="s">
+      <c r="Z36" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA36" s="4"/>
@@ -8274,13 +8271,13 @@
       <c r="C37" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="D37" s="47" t="s">
+      <c r="D37" s="35" t="s">
         <v>253</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G37" s="35" t="s">
@@ -8330,13 +8327,13 @@
       <c r="W37" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X37" s="49" t="s">
+      <c r="X37" s="48" t="s">
         <v>257</v>
       </c>
       <c r="Y37" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z37" s="50" t="s">
+      <c r="Z37" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA37" s="4"/>
@@ -8364,19 +8361,19 @@
       <c r="A38" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="35" t="s">
         <v>260</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G38" s="35" t="s">
@@ -8426,13 +8423,13 @@
       <c r="W38" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="X38" s="49" t="s">
+      <c r="X38" s="48" t="s">
         <v>264</v>
       </c>
       <c r="Y38" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z38" s="50" t="s">
+      <c r="Z38" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA38" s="3"/>
@@ -8466,13 +8463,13 @@
       <c r="C39" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="35" t="s">
         <v>267</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G39" s="35" t="s">
@@ -8522,13 +8519,13 @@
       <c r="W39" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X39" s="49" t="s">
+      <c r="X39" s="48" t="s">
         <v>1510</v>
       </c>
       <c r="Y39" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z39" s="50" t="s">
+      <c r="Z39" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA39" s="3"/>
@@ -8562,7 +8559,7 @@
       <c r="C40" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="35" t="s">
         <v>275</v>
       </c>
       <c r="E40" s="35" t="s">
@@ -8618,13 +8615,13 @@
       <c r="W40" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X40" s="49" t="s">
+      <c r="X40" s="48" t="s">
         <v>282</v>
       </c>
       <c r="Y40" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z40" s="50" t="s">
+      <c r="Z40" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA40" s="32"/>
@@ -8658,13 +8655,13 @@
       <c r="C41" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E41" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="47" t="s">
         <v>119</v>
       </c>
       <c r="G41" s="35" t="s">
@@ -8714,13 +8711,13 @@
       <c r="W41" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X41" s="49" t="s">
+      <c r="X41" s="48" t="s">
         <v>289</v>
       </c>
       <c r="Y41" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z41" s="50" t="s">
+      <c r="Z41" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA41" s="3"/>
@@ -8754,13 +8751,13 @@
       <c r="C42" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="35" t="s">
         <v>292</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G42" s="35" t="s">
@@ -8810,13 +8807,13 @@
       <c r="W42" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X42" s="49" t="s">
+      <c r="X42" s="48" t="s">
         <v>297</v>
       </c>
       <c r="Y42" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z42" s="50" t="s">
+      <c r="Z42" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA42" s="3"/>
@@ -8850,13 +8847,13 @@
       <c r="C43" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="35" t="s">
         <v>300</v>
       </c>
       <c r="E43" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="48" t="s">
+      <c r="F43" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G43" s="35" t="s">
@@ -8906,13 +8903,13 @@
       <c r="W43" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X43" s="49" t="s">
+      <c r="X43" s="48" t="s">
         <v>304</v>
       </c>
       <c r="Y43" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z43" s="50" t="s">
+      <c r="Z43" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA43" s="3"/>
@@ -8946,13 +8943,13 @@
       <c r="C44" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="35" t="s">
         <v>307</v>
       </c>
       <c r="E44" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="48" t="s">
+      <c r="F44" s="47" t="s">
         <v>84</v>
       </c>
       <c r="G44" s="35" t="s">
@@ -9002,13 +8999,13 @@
       <c r="W44" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X44" s="49" t="s">
+      <c r="X44" s="48" t="s">
         <v>311</v>
       </c>
       <c r="Y44" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z44" s="50" t="s">
+      <c r="Z44" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA44" s="3"/>
@@ -9042,13 +9039,13 @@
       <c r="C45" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="35" t="s">
         <v>314</v>
       </c>
       <c r="E45" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G45" s="35" t="s">
@@ -9098,13 +9095,13 @@
       <c r="W45" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X45" s="49" t="s">
+      <c r="X45" s="48" t="s">
         <v>319</v>
       </c>
       <c r="Y45" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z45" s="50" t="s">
+      <c r="Z45" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA45" s="3"/>
@@ -9138,13 +9135,13 @@
       <c r="C46" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="35" t="s">
         <v>322</v>
       </c>
       <c r="E46" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="48" t="s">
+      <c r="F46" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G46" s="35" t="s">
@@ -9194,13 +9191,13 @@
       <c r="W46" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X46" s="49" t="s">
+      <c r="X46" s="48" t="s">
         <v>326</v>
       </c>
       <c r="Y46" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z46" s="50" t="s">
+      <c r="Z46" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA46" s="3"/>
@@ -9234,13 +9231,13 @@
       <c r="C47" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="35" t="s">
         <v>329</v>
       </c>
       <c r="E47" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="47" t="s">
         <v>178</v>
       </c>
       <c r="G47" s="35" t="s">
@@ -9290,13 +9287,13 @@
       <c r="W47" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X47" s="49" t="s">
+      <c r="X47" s="48" t="s">
         <v>334</v>
       </c>
       <c r="Y47" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z47" s="50" t="s">
+      <c r="Z47" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA47" s="3"/>
@@ -9330,13 +9327,13 @@
       <c r="C48" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="35" t="s">
         <v>337</v>
       </c>
       <c r="E48" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="F48" s="48" t="s">
+      <c r="F48" s="47" t="s">
         <v>277</v>
       </c>
       <c r="G48" s="35" t="s">
@@ -9384,13 +9381,13 @@
       <c r="W48" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X48" s="49" t="s">
+      <c r="X48" s="48" t="s">
         <v>343</v>
       </c>
       <c r="Y48" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z48" s="50" t="s">
+      <c r="Z48" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA48" s="3"/>
@@ -9424,13 +9421,13 @@
       <c r="C49" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="D49" s="47" t="s">
+      <c r="D49" s="35" t="s">
         <v>346</v>
       </c>
       <c r="E49" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G49" s="35" t="s">
@@ -9480,13 +9477,13 @@
       <c r="W49" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X49" s="49" t="s">
+      <c r="X49" s="48" t="s">
         <v>220</v>
       </c>
       <c r="Y49" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z49" s="50" t="s">
+      <c r="Z49" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA49" s="3"/>
@@ -9520,13 +9517,13 @@
       <c r="C50" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="35" t="s">
         <v>353</v>
       </c>
       <c r="E50" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G50" s="35" t="s">
@@ -9576,13 +9573,13 @@
       <c r="W50" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="X50" s="49" t="s">
+      <c r="X50" s="48" t="s">
         <v>357</v>
       </c>
       <c r="Y50" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z50" s="50" t="s">
+      <c r="Z50" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA50" s="3"/>
@@ -9616,13 +9613,13 @@
       <c r="C51" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="35" t="s">
         <v>360</v>
       </c>
       <c r="E51" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="F51" s="48" t="s">
+      <c r="F51" s="47" t="s">
         <v>277</v>
       </c>
       <c r="G51" s="35" t="s">
@@ -9672,13 +9669,13 @@
       <c r="W51" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X51" s="49" t="s">
+      <c r="X51" s="48" t="s">
         <v>366</v>
       </c>
       <c r="Y51" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z51" s="50" t="s">
+      <c r="Z51" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA51" s="3"/>
@@ -9712,13 +9709,13 @@
       <c r="C52" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="D52" s="47" t="s">
+      <c r="D52" s="35" t="s">
         <v>369</v>
       </c>
       <c r="E52" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="48" t="s">
+      <c r="F52" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G52" s="35" t="s">
@@ -9768,13 +9765,13 @@
       <c r="W52" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X52" s="49" t="s">
+      <c r="X52" s="48" t="s">
         <v>373</v>
       </c>
       <c r="Y52" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z52" s="50" t="s">
+      <c r="Z52" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA52" s="3"/>
@@ -9808,13 +9805,13 @@
       <c r="C53" s="35" t="s">
         <v>375</v>
       </c>
-      <c r="D53" s="47" t="s">
+      <c r="D53" s="35" t="s">
         <v>376</v>
       </c>
       <c r="E53" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="48" t="s">
+      <c r="F53" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G53" s="35" t="s">
@@ -9864,13 +9861,13 @@
       <c r="W53" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X53" s="49" t="s">
+      <c r="X53" s="48" t="s">
         <v>381</v>
       </c>
       <c r="Y53" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z53" s="50" t="s">
+      <c r="Z53" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA53" s="3"/>
@@ -9904,13 +9901,13 @@
       <c r="C54" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="D54" s="47" t="s">
+      <c r="D54" s="35" t="s">
         <v>384</v>
       </c>
       <c r="E54" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="F54" s="48" t="s">
+      <c r="F54" s="47" t="s">
         <v>109</v>
       </c>
       <c r="G54" s="35" t="s">
@@ -9960,13 +9957,13 @@
       <c r="W54" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X54" s="49" t="s">
+      <c r="X54" s="48" t="s">
         <v>388</v>
       </c>
       <c r="Y54" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z54" s="50" t="s">
+      <c r="Z54" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA54" s="3"/>
@@ -10000,13 +9997,13 @@
       <c r="C55" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="D55" s="47" t="s">
+      <c r="D55" s="35" t="s">
         <v>216</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="48" t="s">
+      <c r="F55" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G55" s="35" t="s">
@@ -10056,13 +10053,13 @@
       <c r="W55" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="X55" s="49" t="s">
+      <c r="X55" s="48" t="s">
         <v>394</v>
       </c>
       <c r="Y55" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z55" s="50" t="s">
+      <c r="Z55" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA55" s="3"/>
@@ -10096,13 +10093,13 @@
       <c r="C56" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="35" t="s">
         <v>397</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F56" s="48" t="s">
+      <c r="F56" s="47" t="s">
         <v>84</v>
       </c>
       <c r="G56" s="35" t="s">
@@ -10152,13 +10149,13 @@
       <c r="W56" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X56" s="49" t="s">
+      <c r="X56" s="48" t="s">
         <v>401</v>
       </c>
       <c r="Y56" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z56" s="50" t="s">
+      <c r="Z56" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA56" s="3"/>
@@ -10192,13 +10189,13 @@
       <c r="C57" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="35" t="s">
         <v>404</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="F57" s="48" t="s">
+      <c r="F57" s="47" t="s">
         <v>119</v>
       </c>
       <c r="G57" s="35" t="s">
@@ -10248,13 +10245,13 @@
       <c r="W57" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X57" s="49" t="s">
+      <c r="X57" s="48" t="s">
         <v>409</v>
       </c>
       <c r="Y57" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z57" s="50" t="s">
+      <c r="Z57" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA57" s="12"/>
@@ -10288,13 +10285,13 @@
       <c r="C58" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="35" t="s">
         <v>412</v>
       </c>
       <c r="E58" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="F58" s="48" t="s">
+      <c r="F58" s="47" t="s">
         <v>413</v>
       </c>
       <c r="G58" s="35" t="s">
@@ -10344,13 +10341,13 @@
       <c r="W58" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X58" s="49" t="s">
+      <c r="X58" s="48" t="s">
         <v>417</v>
       </c>
       <c r="Y58" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z58" s="50" t="s">
+      <c r="Z58" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA58" s="12"/>
@@ -10384,13 +10381,13 @@
       <c r="C59" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="D59" s="47" t="s">
+      <c r="D59" s="35" t="s">
         <v>420</v>
       </c>
       <c r="E59" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="F59" s="48" t="s">
+      <c r="F59" s="47" t="s">
         <v>277</v>
       </c>
       <c r="G59" s="35" t="s">
@@ -10438,13 +10435,13 @@
       <c r="W59" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X59" s="49" t="s">
+      <c r="X59" s="48" t="s">
         <v>425</v>
       </c>
       <c r="Y59" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z59" s="50" t="s">
+      <c r="Z59" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA59" s="3"/>
@@ -10478,13 +10475,13 @@
       <c r="C60" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="35" t="s">
         <v>428</v>
       </c>
       <c r="E60" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="48" t="s">
+      <c r="F60" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G60" s="35" t="s">
@@ -10534,13 +10531,13 @@
       <c r="W60" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X60" s="49" t="s">
+      <c r="X60" s="48" t="s">
         <v>432</v>
       </c>
       <c r="Y60" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z60" s="50" t="s">
+      <c r="Z60" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA60" s="3"/>
@@ -10574,13 +10571,13 @@
       <c r="C61" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="D61" s="47" t="s">
+      <c r="D61" s="35" t="s">
         <v>435</v>
       </c>
       <c r="E61" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="48" t="s">
+      <c r="F61" s="47" t="s">
         <v>84</v>
       </c>
       <c r="G61" s="35" t="s">
@@ -10630,13 +10627,13 @@
       <c r="W61" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X61" s="49" t="s">
+      <c r="X61" s="48" t="s">
         <v>439</v>
       </c>
       <c r="Y61" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z61" s="50" t="s">
+      <c r="Z61" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA61" s="3"/>
@@ -10670,13 +10667,13 @@
       <c r="C62" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="D62" s="47" t="s">
+      <c r="D62" s="35" t="s">
         <v>442</v>
       </c>
       <c r="E62" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F62" s="48" t="s">
+      <c r="F62" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G62" s="35" t="s">
@@ -10726,13 +10723,13 @@
       <c r="W62" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X62" s="49" t="s">
+      <c r="X62" s="48" t="s">
         <v>432</v>
       </c>
       <c r="Y62" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z62" s="50" t="s">
+      <c r="Z62" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA62" s="3"/>
@@ -10766,13 +10763,13 @@
       <c r="C63" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="35" t="s">
         <v>448</v>
       </c>
       <c r="E63" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="F63" s="48" t="s">
+      <c r="F63" s="47" t="s">
         <v>277</v>
       </c>
       <c r="G63" s="35" t="s">
@@ -10822,13 +10819,13 @@
       <c r="W63" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="X63" s="49" t="s">
+      <c r="X63" s="48" t="s">
         <v>453</v>
       </c>
       <c r="Y63" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z63" s="50" t="s">
+      <c r="Z63" s="49" t="s">
         <v>59</v>
       </c>
       <c r="AA63" s="3"/>
